--- a/medicine/Mort/Mémorial/Mémorial.xlsx
+++ b/medicine/Mort/Mémorial/Mémorial.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>M%C3%A9morial</t>
+          <t>Mémorial</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un mémorial est une forme durable de conservation collective du souvenir d'un fait ou autre entité remarquable , soit :
 un écrit où l'on a consigné ce dont on veut garder le souvenir comme Le Mémorial de Sainte-Hélène ou le Mémorial de la déportation des Juifs de France par exemple ;
@@ -495,7 +507,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>M%C3%A9morial</t>
+          <t>Mémorial</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,8 +527,13 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Typologie
-Les formes les plus répandues de mémoriaux sont des monuments comme des :
+          <t>Typologie</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les formes les plus répandues de mémoriaux sont des monuments comme des :
 statues ;
 fontaines ;
 pierre tombale (type le plus courant) ;
@@ -527,9 +544,6 @@
 Ils peuvent revêtir une forme grandiose notamment lorsqu'ils commémorent un fait d'armes de grande importance historique.
 Les monuments aux morts sont édifiés pour honorer les personnes tuées ou disparues par faits de guerre. Après un attentat, un mémorial peut être improvisé par des citoyens : l'on parle alors de mémorial de fortune.
 Une forme particulière est le mémorial de bord de route qui marque le long d'un chemin ou chaussée, le lieu où une personne est décédée, souvent à la suite d'un accident de circulation.
-Action à la mémoire de quelqu'un
-Lorsqu'une personne décède, la famille peut demander qu'un don, généralement de l'argent (plutôt que des fleurs), soit versé à une fondation ou à une église. Parfois, lorsqu'un étudiant décède, le mémorial se fait sous la forme d'une bourse d'études à attribuer aux étudiants méritants.
-En liturgie, le mémorial du sacrifice du Christ est un nom donné à la messe.
 </t>
         </is>
       </c>
@@ -540,7 +554,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>M%C3%A9morial</t>
+          <t>Mémorial</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -555,10 +569,50 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Caractéristiques des monuments mémoriaux</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Action à la mémoire de quelqu'un</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Lorsqu'une personne décède, la famille peut demander qu'un don, généralement de l'argent (plutôt que des fleurs), soit versé à une fondation ou à une église. Parfois, lorsqu'un étudiant décède, le mémorial se fait sous la forme d'une bourse d'études à attribuer aux étudiants méritants.
+En liturgie, le mémorial du sacrifice du Christ est un nom donné à la messe.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Mémorial</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Mort/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/M%C3%A9morial</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
           <t>Mémoriaux emblématiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Alger : Mémorial du martyr (Guerre d'indépendance)
